--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dev Information Technology Ltd/Pruned_Excel/Semi_Final/Dev Information Technology Ltd_Semi_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dev Information Technology Ltd/Pruned_Excel/Semi_Final/Dev Information Technology Ltd_Semi_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>Balance Sheet of Dev Information Technology(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,36 +62,6 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
-  </si>
-  <si>
     <t>Cash Flow of Dev Information Technology(in Rs. Cr.)</t>
   </si>
   <si>
@@ -185,6 +158,9 @@
     <t>Quarterly Results of Dev Information Technology(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>Net sales/income from operations</t>
   </si>
   <si>
@@ -239,49 +215,16 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>Mar 21 Q4</t>
-  </si>
-  <si>
-    <t>Jun 21 Q1</t>
-  </si>
-  <si>
-    <t>Sep 21 Q2</t>
-  </si>
-  <si>
-    <t>Dec 21 Q3</t>
-  </si>
-  <si>
-    <t>Mar 22 Q4</t>
-  </si>
-  <si>
-    <t>Jun 22 Q1</t>
-  </si>
-  <si>
-    <t>Sep 22 Q2</t>
-  </si>
-  <si>
-    <t>Dec 22 Q3</t>
-  </si>
-  <si>
-    <t>Mar 23 Q4</t>
-  </si>
-  <si>
-    <t>Jun 23 Q1</t>
-  </si>
-  <si>
-    <t>Sep 23 Q2</t>
-  </si>
-  <si>
-    <t>Dec 23 Q3</t>
-  </si>
-  <si>
-    <t>Mar 24 Q4</t>
-  </si>
-  <si>
-    <t>Jun 24 Q1</t>
-  </si>
-  <si>
-    <t>Sep 24 Q2</t>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
   <si>
     <t>Key Financial Ratios of Dev Information Technology(in Rs. Cr.)</t>
@@ -693,13 +636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,414 +682,447 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>2015</v>
+      </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>0.5</v>
-      </c>
-      <c r="C2">
-        <v>8.48</v>
       </c>
       <c r="D2">
         <v>8.48</v>
       </c>
       <c r="E2">
+        <v>8.48</v>
+      </c>
+      <c r="F2">
         <v>8.98</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1.36</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>15.27</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>26.78</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4.4</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4.41</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>6.19</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>20.59</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>26.78</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2016</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>0.5</v>
-      </c>
-      <c r="C3">
-        <v>10.35</v>
       </c>
       <c r="D3">
         <v>10.35</v>
       </c>
       <c r="E3">
+        <v>10.35</v>
+      </c>
+      <c r="F3">
         <v>10.85</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.47</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>16.83</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>30.82</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4.12</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>4.14</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>5.74</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>25.08</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>30.82</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2017</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>4.03</v>
-      </c>
-      <c r="C4">
-        <v>12.06</v>
       </c>
       <c r="D4">
         <v>12.06</v>
       </c>
       <c r="E4">
+        <v>12.06</v>
+      </c>
+      <c r="F4">
         <v>16.09</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2.54</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>24.21</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>42.9</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5.18</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>9.130000000000001</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>10</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>32.9</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>42.9</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>2018</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>5.52</v>
-      </c>
-      <c r="C5">
-        <v>19.94</v>
       </c>
       <c r="D5">
         <v>19.94</v>
       </c>
       <c r="E5">
+        <v>19.94</v>
+      </c>
+      <c r="F5">
         <v>25.46</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.86</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>26.22</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>53.3</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5.41</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>8.59</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>9.5</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>43.8</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>53.3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>2019</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>5.52</v>
-      </c>
-      <c r="C6">
-        <v>23.97</v>
       </c>
       <c r="D6">
         <v>23.97</v>
       </c>
       <c r="E6">
+        <v>23.97</v>
+      </c>
+      <c r="F6">
         <v>29.49</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.63</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>20.34</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>52.74</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>8.65</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>11.07</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>13.2</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>39.54</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>52.74</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>18</v>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>2020</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>5.52</v>
-      </c>
-      <c r="C7">
-        <v>27.06</v>
       </c>
       <c r="D7">
         <v>27.06</v>
       </c>
       <c r="E7">
+        <v>27.06</v>
+      </c>
+      <c r="F7">
         <v>32.58</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>23.34</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>58.1</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>8.390000000000001</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>12.04</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>19.91</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>38.19</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>58.1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>19</v>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>2021</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>5.52</v>
-      </c>
-      <c r="C8">
-        <v>27.77</v>
       </c>
       <c r="D8">
         <v>27.77</v>
       </c>
       <c r="E8">
+        <v>27.77</v>
+      </c>
+      <c r="F8">
         <v>33.29</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4.22</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>28.29</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>63.14</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>7.9</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>10.55</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>18.62</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>44.52</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>63.14</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>20</v>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>2022</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>11.04</v>
-      </c>
-      <c r="C9">
-        <v>22.92</v>
       </c>
       <c r="D9">
         <v>22.92</v>
       </c>
       <c r="E9">
+        <v>22.92</v>
+      </c>
+      <c r="F9">
         <v>33.96</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5.3</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>32.15</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>67.15000000000001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>8.01</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>10.43</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>17.49</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>49.65</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>67.15000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>21</v>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>2023</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>11.06</v>
-      </c>
-      <c r="C10">
-        <v>31.36</v>
       </c>
       <c r="D10">
         <v>31.36</v>
       </c>
       <c r="E10">
+        <v>31.36</v>
+      </c>
+      <c r="F10">
         <v>42.41</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>5.52</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>21.78</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>67.87</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>7.92</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>10.42</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>22.43</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>45.44</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>67.87</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>22</v>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>2024</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>11.24</v>
-      </c>
-      <c r="C11">
-        <v>44.56</v>
       </c>
       <c r="D11">
         <v>44.56</v>
       </c>
       <c r="E11">
+        <v>44.56</v>
+      </c>
+      <c r="F11">
         <v>55.81</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>9.83</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>28.78</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>88.72</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>8.869999999999999</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>12.4</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>28.19</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>60.53</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>88.72</v>
       </c>
     </row>
@@ -1157,328 +1133,361 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>2015</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>1.74</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.59</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.46</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-0.06</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3.11</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3.19</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2016</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>3.15</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.24</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.08</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-1.15</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.17</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3.19</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3.35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2017</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>4.34</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5.56</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-5.57</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.02</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.01</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3.35</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4.37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>2018</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>4.95</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-2.9</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-0.89</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5.63</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.84</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.75</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3.59</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>2019</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>6.5</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>4.93</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-3.71</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-1.03</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.19</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.59</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3.78</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>2020</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>3.41</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>7.6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-7.38</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.54</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.32</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3.78</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3.46</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>2021</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>1.45</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5.42</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.59</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-1.12</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>3.71</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3.46</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>7.17</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>2022</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>3.83</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>3.64</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-1.09</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-2.72</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-0.17</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>7.17</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>2023</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>10.82</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.9399999999999999</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-1.21</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-4</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-6.15</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>7</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.84</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>2024</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>11.72</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-2.32</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3.23</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.1</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.84</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.95</v>
       </c>
     </row>
@@ -1489,134 +1498,137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>2015</v>
       </c>
       <c r="B2">
-        <v>43.31</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>43.31</v>
       </c>
       <c r="D2">
+        <v>43.31</v>
+      </c>
+      <c r="E2">
         <v>44.48</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.41</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>44.89</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.67</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10.9</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.15</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.78</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2.68</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>43.15</v>
-      </c>
-      <c r="M2">
-        <v>1.74</v>
       </c>
       <c r="N2">
         <v>1.74</v>
       </c>
       <c r="O2">
+        <v>1.74</v>
+      </c>
+      <c r="P2">
         <v>0.64</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>-0.14</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.49</v>
-      </c>
-      <c r="R2">
-        <v>1.25</v>
       </c>
       <c r="S2">
         <v>1.25</v>
@@ -1625,66 +1637,69 @@
         <v>1.25</v>
       </c>
       <c r="U2">
-        <v>4.54</v>
+        <v>1.25</v>
       </c>
       <c r="V2">
         <v>4.54</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
-        <v>14</v>
+      <c r="W2">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>2016</v>
       </c>
       <c r="B3">
-        <v>44.66</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>44.66</v>
       </c>
       <c r="D3">
+        <v>44.66</v>
+      </c>
+      <c r="E3">
         <v>44.93</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.48</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>45.41</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3.04</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>13.9</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.47</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.5600000000000001</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2.93</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>42.25</v>
-      </c>
-      <c r="M3">
-        <v>3.15</v>
       </c>
       <c r="N3">
         <v>3.15</v>
       </c>
       <c r="O3">
+        <v>3.15</v>
+      </c>
+      <c r="P3">
         <v>1.2</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.06</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1.14</v>
-      </c>
-      <c r="R3">
-        <v>2.01</v>
       </c>
       <c r="S3">
         <v>2.01</v>
@@ -1693,66 +1708,69 @@
         <v>2.01</v>
       </c>
       <c r="U3">
-        <v>7.32</v>
+        <v>2.01</v>
       </c>
       <c r="V3">
         <v>7.32</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
-        <v>15</v>
+      <c r="W3">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>2017</v>
       </c>
       <c r="B4">
-        <v>56.33</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>56.33</v>
       </c>
       <c r="D4">
+        <v>56.33</v>
+      </c>
+      <c r="E4">
         <v>56.52</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.34</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>56.86</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5.69</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>17.2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.54</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.75</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3.49</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>52.53</v>
-      </c>
-      <c r="M4">
-        <v>4.34</v>
       </c>
       <c r="N4">
         <v>4.34</v>
       </c>
       <c r="O4">
+        <v>4.34</v>
+      </c>
+      <c r="P4">
         <v>1.23</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.26</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1.44</v>
-      </c>
-      <c r="R4">
-        <v>2.9</v>
       </c>
       <c r="S4">
         <v>2.9</v>
@@ -1761,66 +1779,69 @@
         <v>2.9</v>
       </c>
       <c r="U4">
-        <v>7.28</v>
+        <v>2.9</v>
       </c>
       <c r="V4">
         <v>7.28</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
-        <v>16</v>
+      <c r="W4">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2018</v>
       </c>
       <c r="B5">
-        <v>66.8</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>66.8</v>
       </c>
       <c r="D5">
+        <v>66.8</v>
+      </c>
+      <c r="E5">
         <v>66.97</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.36</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>67.33</v>
       </c>
-      <c r="G5">
-        <v>22.32</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>19.04</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.63</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.75</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>4.71</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>62.38</v>
-      </c>
-      <c r="M5">
-        <v>4.95</v>
       </c>
       <c r="N5">
         <v>4.95</v>
       </c>
       <c r="O5">
+        <v>4.95</v>
+      </c>
+      <c r="P5">
         <v>1.71</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-0.14</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1.5</v>
-      </c>
-      <c r="R5">
-        <v>3.45</v>
       </c>
       <c r="S5">
         <v>3.45</v>
@@ -1829,66 +1850,69 @@
         <v>3.45</v>
       </c>
       <c r="U5">
-        <v>6.3</v>
+        <v>3.45</v>
       </c>
       <c r="V5">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
-        <v>17</v>
+      <c r="W5">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>2019</v>
       </c>
       <c r="B6">
-        <v>70.87</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>70.87</v>
       </c>
       <c r="D6">
+        <v>70.87</v>
+      </c>
+      <c r="E6">
         <v>72.79000000000001</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.52</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>73.31</v>
       </c>
-      <c r="G6">
-        <v>22.32</v>
-      </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>28.39</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1.24</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.6</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4.76</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>66.81</v>
-      </c>
-      <c r="M6">
-        <v>6.5</v>
       </c>
       <c r="N6">
         <v>6.5</v>
       </c>
       <c r="O6">
+        <v>6.5</v>
+      </c>
+      <c r="P6">
         <v>2.05</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.09</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2.14</v>
-      </c>
-      <c r="R6">
-        <v>4.36</v>
       </c>
       <c r="S6">
         <v>4.36</v>
@@ -1897,66 +1921,69 @@
         <v>4.36</v>
       </c>
       <c r="U6">
-        <v>7.9</v>
+        <v>4.36</v>
       </c>
       <c r="V6">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" t="s">
-        <v>18</v>
+      <c r="W6">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>2020</v>
       </c>
       <c r="B7">
-        <v>66.01000000000001</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>66.01000000000001</v>
       </c>
       <c r="D7">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="E7">
         <v>66.13</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.92</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>67.06</v>
       </c>
-      <c r="G7">
-        <v>22.32</v>
-      </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>31.84</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.33</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2.03</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>4.85</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>65.23</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1.83</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>3.41</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.27</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-0.21</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-0.02</v>
-      </c>
-      <c r="R7">
-        <v>3.43</v>
       </c>
       <c r="S7">
         <v>3.43</v>
@@ -1965,66 +1992,69 @@
         <v>3.43</v>
       </c>
       <c r="U7">
-        <v>6.21</v>
+        <v>3.43</v>
       </c>
       <c r="V7">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" t="s">
-        <v>19</v>
+      <c r="W7">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>2021</v>
       </c>
       <c r="B8">
-        <v>84.06999999999999</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>84.06999999999999</v>
       </c>
       <c r="D8">
+        <v>84.06999999999999</v>
+      </c>
+      <c r="E8">
         <v>84.33</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.52</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>84.84999999999999</v>
       </c>
-      <c r="G8">
-        <v>22.32</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>34.36</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.98</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2.08</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>4.2</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>83.40000000000001</v>
-      </c>
-      <c r="M8">
-        <v>1.45</v>
       </c>
       <c r="N8">
         <v>1.45</v>
       </c>
       <c r="O8">
+        <v>1.45</v>
+      </c>
+      <c r="P8">
         <v>0.58</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-0.11</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.47</v>
-      </c>
-      <c r="R8">
-        <v>0.98</v>
       </c>
       <c r="S8">
         <v>0.98</v>
@@ -2033,66 +2063,69 @@
         <v>0.98</v>
       </c>
       <c r="U8">
-        <v>1.78</v>
+        <v>0.98</v>
       </c>
       <c r="V8">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" t="s">
-        <v>20</v>
+      <c r="W8">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>2022</v>
       </c>
       <c r="B9">
-        <v>98.95</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>98.95</v>
       </c>
       <c r="D9">
+        <v>98.95</v>
+      </c>
+      <c r="E9">
         <v>99.03</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.03</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>100.06</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>19.95</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>44.7</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.83</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1.81</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>4.7</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>96.23</v>
-      </c>
-      <c r="M9">
-        <v>3.83</v>
       </c>
       <c r="N9">
         <v>3.83</v>
       </c>
       <c r="O9">
+        <v>3.83</v>
+      </c>
+      <c r="P9">
         <v>1.21</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.54</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1.91</v>
-      </c>
-      <c r="R9">
-        <v>1.92</v>
       </c>
       <c r="S9">
         <v>1.92</v>
@@ -2101,66 +2134,69 @@
         <v>1.92</v>
       </c>
       <c r="U9">
-        <v>3.47</v>
+        <v>1.92</v>
       </c>
       <c r="V9">
         <v>3.47</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" t="s">
-        <v>21</v>
+      <c r="W9">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>2023</v>
       </c>
       <c r="B10">
-        <v>121.95</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>121.95</v>
       </c>
       <c r="D10">
+        <v>121.95</v>
+      </c>
+      <c r="E10">
         <v>121.97</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>6.97</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>128.94</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>30.61</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>50.48</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1.2</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1.21</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>4.5</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>118.12</v>
-      </c>
-      <c r="M10">
-        <v>10.82</v>
       </c>
       <c r="N10">
         <v>10.82</v>
       </c>
       <c r="O10">
+        <v>10.82</v>
+      </c>
+      <c r="P10">
         <v>2.5</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-0.3</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2.1</v>
-      </c>
-      <c r="R10">
-        <v>8.720000000000001</v>
       </c>
       <c r="S10">
         <v>8.720000000000001</v>
@@ -2169,66 +2205,69 @@
         <v>8.720000000000001</v>
       </c>
       <c r="U10">
-        <v>3.95</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="V10">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" t="s">
-        <v>22</v>
+      <c r="W10">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>2024</v>
       </c>
       <c r="B11">
-        <v>157.06</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>157.06</v>
       </c>
       <c r="D11">
+        <v>157.06</v>
+      </c>
+      <c r="E11">
         <v>157.28</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.42</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>158.7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>71.95999999999999</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>69.09999999999999</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.21</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1.24</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>4.84</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>146.98</v>
-      </c>
-      <c r="M11">
-        <v>11.72</v>
       </c>
       <c r="N11">
         <v>11.72</v>
       </c>
       <c r="O11">
+        <v>11.72</v>
+      </c>
+      <c r="P11">
         <v>2.87</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.14</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>2.95</v>
-      </c>
-      <c r="R11">
-        <v>8.77</v>
       </c>
       <c r="S11">
         <v>8.77</v>
@@ -2237,9 +2276,12 @@
         <v>8.77</v>
       </c>
       <c r="U11">
+        <v>8.77</v>
+      </c>
+      <c r="V11">
         <v>3.96</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>3.94</v>
       </c>
     </row>
@@ -2250,134 +2292,140 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2">
+      <c r="D2">
         <v>24.56</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>24.56</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>10.05</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.53</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>1.51</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.3</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.08</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.38</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.29</v>
-      </c>
-      <c r="K2">
-        <v>0.09</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
       </c>
       <c r="M2">
         <v>0.09</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.09</v>
+      </c>
+      <c r="P2">
         <v>0.11</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>-0.01</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>-0.01</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>5.52</v>
-      </c>
-      <c r="R2">
-        <v>-0.03</v>
-      </c>
-      <c r="S2">
-        <v>-0.03</v>
       </c>
       <c r="T2">
         <v>-0.03</v>
@@ -2385,64 +2433,70 @@
       <c r="U2">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>74</v>
+      <c r="V2">
+        <v>-0.03</v>
+      </c>
+      <c r="W2">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>2021</v>
       </c>
       <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3">
         <v>22.59</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>22.59</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>12.64</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.57</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>0.97</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.64</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0.18</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.82</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.28</v>
-      </c>
-      <c r="K3">
-        <v>0.54</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
       </c>
       <c r="M3">
         <v>0.54</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.54</v>
+      </c>
+      <c r="P3">
         <v>0.3</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.24</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.24</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>5.52</v>
-      </c>
-      <c r="R3">
-        <v>0.22</v>
-      </c>
-      <c r="S3">
-        <v>1.187</v>
       </c>
       <c r="T3">
         <v>0.22</v>
@@ -2450,64 +2504,70 @@
       <c r="U3">
         <v>1.187</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>75</v>
+      <c r="V3">
+        <v>0.22</v>
+      </c>
+      <c r="W3">
+        <v>1.187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>2021</v>
       </c>
       <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
         <v>15.6</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>15.6</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>8.73</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.39</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.67</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.44</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.12</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.5600000000000001</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.19</v>
-      </c>
-      <c r="K4">
-        <v>0.37</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
       </c>
       <c r="M4">
         <v>0.37</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.37</v>
+      </c>
+      <c r="P4">
         <v>0.21</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.16</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.16</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>5.52</v>
-      </c>
-      <c r="R4">
-        <v>0.29</v>
-      </c>
-      <c r="S4">
-        <v>0.29</v>
       </c>
       <c r="T4">
         <v>0.29</v>
@@ -2515,64 +2575,70 @@
       <c r="U4">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>76</v>
+      <c r="V4">
+        <v>0.29</v>
+      </c>
+      <c r="W4">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2021</v>
       </c>
       <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5">
         <v>29.08</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>29.08</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>9.01</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.32</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>1.56</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>1.33</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.28</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>1.61</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.08</v>
-      </c>
-      <c r="K5">
-        <v>1.53</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
       </c>
       <c r="M5">
         <v>1.53</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.53</v>
+      </c>
+      <c r="P5">
         <v>0.48</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>1.05</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>1.05</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>11.04</v>
-      </c>
-      <c r="R5">
-        <v>0.95</v>
-      </c>
-      <c r="S5">
-        <v>0.95</v>
       </c>
       <c r="T5">
         <v>0.95</v>
@@ -2580,64 +2646,70 @@
       <c r="U5">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>77</v>
+      <c r="V5">
+        <v>0.95</v>
+      </c>
+      <c r="W5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>2022</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6">
         <v>31.75</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>31.75</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>14.33</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.58</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.51</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>1.16</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.34</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>1.5</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.27</v>
-      </c>
-      <c r="K6">
-        <v>1.23</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
       </c>
       <c r="M6">
         <v>1.23</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.23</v>
+      </c>
+      <c r="P6">
         <v>0.48</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>0.76</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>0.76</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>11.04</v>
-      </c>
-      <c r="R6">
-        <v>0.68</v>
-      </c>
-      <c r="S6">
-        <v>0.68</v>
       </c>
       <c r="T6">
         <v>0.68</v>
@@ -2645,64 +2717,70 @@
       <c r="U6">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>78</v>
+      <c r="V6">
+        <v>0.68</v>
+      </c>
+      <c r="W6">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>2022</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7">
         <v>26.01</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>26.01</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>12.47</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>0.27</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.82</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>1.34</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.37</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1.71</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.25</v>
-      </c>
-      <c r="K7">
-        <v>1.45</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
       </c>
       <c r="M7">
         <v>1.45</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.45</v>
+      </c>
+      <c r="P7">
         <v>-0.02</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>1.48</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>1.48</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>11.04</v>
-      </c>
-      <c r="R7">
-        <v>1.34</v>
-      </c>
-      <c r="S7">
-        <v>1.34</v>
       </c>
       <c r="T7">
         <v>1.34</v>
@@ -2710,64 +2788,70 @@
       <c r="U7">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>79</v>
+      <c r="V7">
+        <v>1.34</v>
+      </c>
+      <c r="W7">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>2022</v>
       </c>
       <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
         <v>27.15</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>27.15</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>11.68</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>0.32</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>1.05</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>1.92</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>0.37</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>2.29</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.31</v>
-      </c>
-      <c r="K8">
-        <v>1.99</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
       </c>
       <c r="M8">
         <v>1.99</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.99</v>
+      </c>
+      <c r="P8">
         <v>0.55</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>1.44</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>1.44</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>11.04</v>
-      </c>
-      <c r="R8">
-        <v>1.31</v>
-      </c>
-      <c r="S8">
-        <v>1.31</v>
       </c>
       <c r="T8">
         <v>1.31</v>
@@ -2775,64 +2859,70 @@
       <c r="U8">
         <v>1.31</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>80</v>
+      <c r="V8">
+        <v>1.31</v>
+      </c>
+      <c r="W8">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>2022</v>
       </c>
       <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9">
         <v>26.93</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>26.93</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>13.56</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>0.29</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>1.17</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>-1.13</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>5.83</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>4.7</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.44</v>
-      </c>
-      <c r="K9">
-        <v>4.26</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
       </c>
       <c r="M9">
         <v>4.26</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>4.26</v>
+      </c>
+      <c r="P9">
         <v>0.87</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>3.4</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>3.4</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>11.04</v>
-      </c>
-      <c r="R9">
-        <v>3.08</v>
-      </c>
-      <c r="S9">
-        <v>3.08</v>
       </c>
       <c r="T9">
         <v>3.08</v>
@@ -2840,64 +2930,70 @@
       <c r="U9">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>81</v>
+      <c r="V9">
+        <v>3.08</v>
+      </c>
+      <c r="W9">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>2023</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
         <v>41.89</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>41.89</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>12.77</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>0.33</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>1.46</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>2.92</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0.4</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>3.32</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>0.2</v>
-      </c>
-      <c r="K10">
-        <v>3.12</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
       </c>
       <c r="M10">
         <v>3.12</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>3.12</v>
+      </c>
+      <c r="P10">
         <v>0.71</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>2.41</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>2.41</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>11.06</v>
-      </c>
-      <c r="R10">
-        <v>1.09</v>
-      </c>
-      <c r="S10">
-        <v>1.09</v>
       </c>
       <c r="T10">
         <v>1.09</v>
@@ -2905,64 +3001,70 @@
       <c r="U10">
         <v>1.09</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
-        <v>82</v>
+      <c r="V10">
+        <v>1.09</v>
+      </c>
+      <c r="W10">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>2023</v>
       </c>
       <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11">
         <v>58.89</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>58.89</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>16.06</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>0.26</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>1.17</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>2.54</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0.18</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>2.72</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>0.25</v>
-      </c>
-      <c r="K11">
-        <v>2.47</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
       </c>
       <c r="M11">
         <v>2.47</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.47</v>
+      </c>
+      <c r="P11">
         <v>0.8</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>1.67</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>1.67</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>11.11</v>
-      </c>
-      <c r="R11">
-        <v>0.75</v>
-      </c>
-      <c r="S11">
-        <v>0.75</v>
       </c>
       <c r="T11">
         <v>0.75</v>
@@ -2970,64 +3072,70 @@
       <c r="U11">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>83</v>
+      <c r="V11">
+        <v>0.75</v>
+      </c>
+      <c r="W11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>2023</v>
       </c>
       <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12">
         <v>30</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>30</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>17.73</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>0.29</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>1.2</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>1.76</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>0.51</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>2.27</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>0.33</v>
-      </c>
-      <c r="K12">
-        <v>1.94</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
       </c>
       <c r="M12">
         <v>1.94</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1.94</v>
+      </c>
+      <c r="P12">
         <v>0.32</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>1.62</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>1.62</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>11.07</v>
-      </c>
-      <c r="R12">
-        <v>0.73</v>
-      </c>
-      <c r="S12">
-        <v>0.73</v>
       </c>
       <c r="T12">
         <v>0.73</v>
@@ -3035,64 +3143,70 @@
       <c r="U12">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" t="s">
-        <v>84</v>
+      <c r="V12">
+        <v>0.73</v>
+      </c>
+      <c r="W12">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>2023</v>
       </c>
       <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13">
         <v>30.72</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>30.72</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>17.41</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0.32</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>1.21</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>2.01</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>0.26</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>2.27</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>0.3</v>
-      </c>
-      <c r="K13">
-        <v>1.97</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
       </c>
       <c r="M13">
         <v>1.97</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1.97</v>
+      </c>
+      <c r="P13">
         <v>0.31</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>1.65</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>1.65</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>11.07</v>
-      </c>
-      <c r="R13">
-        <v>0.75</v>
-      </c>
-      <c r="S13">
-        <v>0.75</v>
       </c>
       <c r="T13">
         <v>0.75</v>
@@ -3100,64 +3214,70 @@
       <c r="U13">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" t="s">
-        <v>85</v>
+      <c r="V13">
+        <v>0.75</v>
+      </c>
+      <c r="W13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>2024</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14">
         <v>37.68</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>37.68</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>17.9</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>0.36</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>1.25</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>5.22</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>0.46</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>5.67</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>0.34</v>
-      </c>
-      <c r="K14">
-        <v>5.33</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
       </c>
       <c r="M14">
         <v>5.33</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>5.33</v>
+      </c>
+      <c r="P14">
         <v>1.51</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>3.82</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>3.82</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>11.24</v>
-      </c>
-      <c r="R14">
-        <v>1.73</v>
-      </c>
-      <c r="S14">
-        <v>1.72</v>
       </c>
       <c r="T14">
         <v>1.73</v>
@@ -3165,64 +3285,70 @@
       <c r="U14">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" t="s">
-        <v>86</v>
+      <c r="V14">
+        <v>1.73</v>
+      </c>
+      <c r="W14">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>2024</v>
       </c>
       <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15">
         <v>30.19</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>30.19</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>18.39</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>0.5600000000000001</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>1.07</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>4.38</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>0.25</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>4.63</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>0.42</v>
-      </c>
-      <c r="K15">
-        <v>4.21</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
       </c>
       <c r="M15">
         <v>4.21</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>4.21</v>
+      </c>
+      <c r="P15">
         <v>0.9</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>3.31</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>3.31</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>11.24</v>
-      </c>
-      <c r="R15">
-        <v>1.47</v>
-      </c>
-      <c r="S15">
-        <v>1.47</v>
       </c>
       <c r="T15">
         <v>1.47</v>
@@ -3230,69 +3356,81 @@
       <c r="U15">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" t="s">
-        <v>87</v>
+      <c r="V15">
+        <v>1.47</v>
+      </c>
+      <c r="W15">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>2024</v>
       </c>
       <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16">
         <v>32.02</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>32.02</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>18.93</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>0.57</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>1.13</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>-0.83</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>11.82</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>10.99</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>0.38</v>
-      </c>
-      <c r="K16">
-        <v>10.61</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
       </c>
       <c r="M16">
         <v>10.61</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>10.61</v>
+      </c>
+      <c r="P16">
         <v>1.47</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>9.140000000000001</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>9.140000000000001</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>11.24</v>
-      </c>
-      <c r="R16">
-        <v>4.07</v>
-      </c>
-      <c r="S16">
-        <v>4.06</v>
       </c>
       <c r="T16">
         <v>4.07</v>
       </c>
       <c r="U16">
+        <v>4.06</v>
+      </c>
+      <c r="V16">
+        <v>4.07</v>
+      </c>
+      <c r="W16">
         <v>4.06</v>
       </c>
     </row>
@@ -3303,625 +3441,658 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>889.55</v>
+      </c>
+      <c r="D2">
+        <v>73.41</v>
+      </c>
+      <c r="E2">
+        <v>57.82</v>
+      </c>
+      <c r="F2">
+        <v>34.75</v>
+      </c>
+      <c r="G2">
+        <v>24.97</v>
+      </c>
+      <c r="H2">
+        <v>8.25</v>
+      </c>
+      <c r="I2">
+        <v>6.49</v>
+      </c>
+      <c r="J2">
+        <v>3.9</v>
+      </c>
+      <c r="K2">
+        <v>2.8</v>
+      </c>
+      <c r="L2">
+        <v>13.89</v>
+      </c>
+      <c r="M2">
+        <v>4.66</v>
+      </c>
+      <c r="N2">
+        <v>0.76</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>4.93</v>
+      </c>
+      <c r="Q2">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>889.55</v>
-      </c>
-      <c r="C2">
-        <v>73.41</v>
-      </c>
-      <c r="D2">
-        <v>57.82</v>
-      </c>
-      <c r="E2">
-        <v>34.75</v>
-      </c>
-      <c r="F2">
-        <v>24.97</v>
-      </c>
-      <c r="G2">
-        <v>8.25</v>
-      </c>
-      <c r="H2">
-        <v>6.49</v>
-      </c>
-      <c r="I2">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>898.66</v>
+      </c>
+      <c r="D3">
+        <v>103.65</v>
+      </c>
+      <c r="E3">
+        <v>92.42</v>
+      </c>
+      <c r="F3">
+        <v>63.08</v>
+      </c>
+      <c r="G3">
+        <v>40.29</v>
+      </c>
+      <c r="H3">
+        <v>11.53</v>
+      </c>
+      <c r="I3">
+        <v>10.28</v>
+      </c>
+      <c r="J3">
+        <v>7.01</v>
+      </c>
+      <c r="K3">
+        <v>4.48</v>
+      </c>
+      <c r="L3">
+        <v>18.56</v>
+      </c>
+      <c r="M3">
+        <v>6.53</v>
+      </c>
+      <c r="N3">
+        <v>0.61</v>
+      </c>
+      <c r="O3">
+        <v>6.2</v>
+      </c>
+      <c r="P3">
+        <v>4.85</v>
+      </c>
+      <c r="Q3">
+        <v>93.8</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>140.17</v>
+      </c>
+      <c r="D4">
+        <v>16.43</v>
+      </c>
+      <c r="E4">
+        <v>14.57</v>
+      </c>
+      <c r="F4">
+        <v>10.75</v>
+      </c>
+      <c r="G4">
+        <v>7.19</v>
+      </c>
+      <c r="H4">
+        <v>11.72</v>
+      </c>
+      <c r="I4">
+        <v>10.39</v>
+      </c>
+      <c r="J4">
+        <v>7.67</v>
+      </c>
+      <c r="K4">
+        <v>5.13</v>
+      </c>
+      <c r="L4">
+        <v>18.02</v>
+      </c>
+      <c r="M4">
+        <v>6.76</v>
+      </c>
+      <c r="N4">
+        <v>0.43</v>
+      </c>
+      <c r="O4">
+        <v>10.182</v>
+      </c>
+      <c r="P4">
+        <v>5.804</v>
+      </c>
+      <c r="Q4">
+        <v>89.818</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>121.31</v>
+      </c>
+      <c r="D5">
+        <v>15.09</v>
+      </c>
+      <c r="E5">
+        <v>11.92</v>
+      </c>
+      <c r="F5">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="G5">
+        <v>6.25</v>
+      </c>
+      <c r="H5">
+        <v>12.43</v>
+      </c>
+      <c r="I5">
+        <v>9.82</v>
+      </c>
+      <c r="J5">
+        <v>7.39</v>
+      </c>
+      <c r="K5">
+        <v>5.15</v>
+      </c>
+      <c r="L5">
+        <v>13.54</v>
+      </c>
+      <c r="M5">
+        <v>6.47</v>
+      </c>
+      <c r="N5">
+        <v>0.32</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>5.3</v>
+      </c>
+      <c r="Q5">
+        <v>92</v>
+      </c>
+      <c r="R5">
+        <v>43.41</v>
+      </c>
+      <c r="S5">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>131.85</v>
+      </c>
+      <c r="D6">
+        <v>16.92</v>
+      </c>
+      <c r="E6">
+        <v>14.03</v>
+      </c>
+      <c r="F6">
+        <v>11.78</v>
+      </c>
+      <c r="G6">
+        <v>7.9</v>
+      </c>
+      <c r="H6">
+        <v>12.83</v>
+      </c>
+      <c r="I6">
+        <v>10.64</v>
+      </c>
+      <c r="J6">
+        <v>8.93</v>
+      </c>
+      <c r="K6">
+        <v>5.98</v>
+      </c>
+      <c r="L6">
+        <v>14.78</v>
+      </c>
+      <c r="M6">
+        <v>8.26</v>
+      </c>
+      <c r="N6">
+        <v>0.31</v>
+      </c>
+      <c r="O6">
+        <v>6.33</v>
+      </c>
+      <c r="P6">
+        <v>4.63</v>
+      </c>
+      <c r="Q6">
+        <v>93.67</v>
+      </c>
+      <c r="R6">
+        <v>56.9</v>
+      </c>
+      <c r="S6">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>119.79</v>
+      </c>
+      <c r="D7">
+        <v>9.4</v>
+      </c>
+      <c r="E7">
+        <v>5.72</v>
+      </c>
+      <c r="F7">
+        <v>6.17</v>
+      </c>
+      <c r="G7">
+        <v>6.21</v>
+      </c>
+      <c r="H7">
+        <v>7.84</v>
+      </c>
+      <c r="I7">
+        <v>4.77</v>
+      </c>
+      <c r="J7">
+        <v>5.15</v>
+      </c>
+      <c r="K7">
+        <v>5.18</v>
+      </c>
+      <c r="L7">
+        <v>10.51</v>
+      </c>
+      <c r="M7">
+        <v>5.89</v>
+      </c>
+      <c r="N7">
+        <v>0.31</v>
+      </c>
+      <c r="O7">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="P7">
+        <v>5.05</v>
+      </c>
+      <c r="Q7">
+        <v>91.95</v>
+      </c>
+      <c r="R7">
+        <v>40.47</v>
+      </c>
+      <c r="S7">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>152.75</v>
+      </c>
+      <c r="D8">
+        <v>8.17</v>
+      </c>
+      <c r="E8">
+        <v>4.41</v>
+      </c>
+      <c r="F8">
+        <v>2.63</v>
+      </c>
+      <c r="G8">
+        <v>1.78</v>
+      </c>
+      <c r="H8">
+        <v>5.35</v>
+      </c>
+      <c r="I8">
+        <v>2.88</v>
+      </c>
+      <c r="J8">
+        <v>1.71</v>
+      </c>
+      <c r="K8">
+        <v>1.16</v>
+      </c>
+      <c r="L8">
+        <v>2.95</v>
+      </c>
+      <c r="M8">
+        <v>1.55</v>
+      </c>
+      <c r="N8">
+        <v>0.31</v>
+      </c>
+      <c r="O8">
+        <v>28.03</v>
+      </c>
+      <c r="P8">
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <v>71.97</v>
+      </c>
+      <c r="R8">
+        <v>61.77</v>
+      </c>
+      <c r="S8">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>89.69</v>
+      </c>
+      <c r="D9">
+        <v>5.86</v>
+      </c>
+      <c r="E9">
+        <v>4.22</v>
+      </c>
+      <c r="F9">
+        <v>3.47</v>
+      </c>
+      <c r="G9">
+        <v>1.73</v>
+      </c>
+      <c r="H9">
+        <v>6.52</v>
+      </c>
+      <c r="I9">
+        <v>4.7</v>
+      </c>
+      <c r="J9">
+        <v>3.86</v>
+      </c>
+      <c r="K9">
+        <v>1.93</v>
+      </c>
+      <c r="L9">
+        <v>5.63</v>
+      </c>
+      <c r="M9">
+        <v>2.85</v>
+      </c>
+      <c r="N9">
+        <v>0.27</v>
+      </c>
+      <c r="O9">
+        <v>14.41</v>
+      </c>
+      <c r="P9">
+        <v>7.4</v>
+      </c>
+      <c r="Q9">
+        <v>85.59</v>
+      </c>
+      <c r="R9">
+        <v>144</v>
+      </c>
+      <c r="S9">
+        <v>22.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>2023</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>55.14</v>
+      </c>
+      <c r="D10">
+        <v>5.98</v>
+      </c>
+      <c r="E10">
+        <v>5.43</v>
+      </c>
+      <c r="F10">
+        <v>4.89</v>
+      </c>
+      <c r="G10">
+        <v>3.94</v>
+      </c>
+      <c r="H10">
+        <v>10.84</v>
+      </c>
+      <c r="I10">
+        <v>9.85</v>
+      </c>
+      <c r="J10">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="K10">
+        <v>7.15</v>
+      </c>
+      <c r="L10">
+        <v>20.57</v>
+      </c>
+      <c r="M10">
+        <v>12.85</v>
+      </c>
+      <c r="N10">
+        <v>0.17</v>
+      </c>
+      <c r="O10">
+        <v>6.32</v>
+      </c>
+      <c r="P10">
+        <v>5.55</v>
+      </c>
+      <c r="Q10">
+        <v>93.68000000000001</v>
+      </c>
+      <c r="R10">
+        <v>214.41</v>
+      </c>
+      <c r="S10">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>2024</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>69.95</v>
+      </c>
+      <c r="D11">
+        <v>6.3</v>
+      </c>
+      <c r="E11">
+        <v>5.75</v>
+      </c>
+      <c r="F11">
+        <v>5.21</v>
+      </c>
+      <c r="G11">
         <v>3.9</v>
       </c>
-      <c r="J2">
-        <v>2.8</v>
-      </c>
-      <c r="K2">
-        <v>13.89</v>
-      </c>
-      <c r="L2">
-        <v>4.66</v>
-      </c>
-      <c r="M2">
-        <v>0.76</v>
-      </c>
-      <c r="N2">
-        <v>8</v>
-      </c>
-      <c r="O2">
-        <v>4.93</v>
-      </c>
-      <c r="P2">
-        <v>92</v>
-      </c>
-      <c r="Q2">
-        <v>113.867</v>
-      </c>
-      <c r="R2">
-        <v>12.561</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>898.66</v>
-      </c>
-      <c r="C3">
-        <v>103.65</v>
-      </c>
-      <c r="D3">
-        <v>92.42</v>
-      </c>
-      <c r="E3">
-        <v>63.08</v>
-      </c>
-      <c r="F3">
-        <v>40.29</v>
-      </c>
-      <c r="G3">
-        <v>11.53</v>
-      </c>
-      <c r="H3">
-        <v>10.28</v>
-      </c>
-      <c r="I3">
-        <v>7.01</v>
-      </c>
-      <c r="J3">
-        <v>4.48</v>
-      </c>
-      <c r="K3">
-        <v>18.56</v>
-      </c>
-      <c r="L3">
-        <v>6.53</v>
-      </c>
-      <c r="M3">
-        <v>0.61</v>
-      </c>
-      <c r="N3">
-        <v>6.2</v>
-      </c>
-      <c r="O3">
-        <v>4.85</v>
-      </c>
-      <c r="P3">
-        <v>93.8</v>
-      </c>
-      <c r="Q3">
-        <v>113.867</v>
-      </c>
-      <c r="R3">
-        <v>12.561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>140.17</v>
-      </c>
-      <c r="C4">
-        <v>16.43</v>
-      </c>
-      <c r="D4">
-        <v>14.57</v>
-      </c>
-      <c r="E4">
-        <v>10.75</v>
-      </c>
-      <c r="F4">
-        <v>7.19</v>
-      </c>
-      <c r="G4">
-        <v>11.72</v>
-      </c>
-      <c r="H4">
-        <v>10.39</v>
-      </c>
-      <c r="I4">
-        <v>7.67</v>
-      </c>
-      <c r="J4">
-        <v>5.13</v>
-      </c>
-      <c r="K4">
-        <v>18.02</v>
-      </c>
-      <c r="L4">
-        <v>6.76</v>
-      </c>
-      <c r="M4">
-        <v>0.43</v>
-      </c>
-      <c r="N4">
-        <v>10.182</v>
-      </c>
-      <c r="O4">
-        <v>5.804</v>
-      </c>
-      <c r="P4">
-        <v>89.818</v>
-      </c>
-      <c r="Q4">
-        <v>113.867</v>
-      </c>
-      <c r="R4">
-        <v>12.561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>121.31</v>
-      </c>
-      <c r="C5">
-        <v>15.09</v>
-      </c>
-      <c r="D5">
-        <v>11.92</v>
-      </c>
-      <c r="E5">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="F5">
-        <v>6.25</v>
-      </c>
-      <c r="G5">
-        <v>12.43</v>
-      </c>
-      <c r="H5">
-        <v>9.82</v>
-      </c>
-      <c r="I5">
-        <v>7.39</v>
-      </c>
-      <c r="J5">
-        <v>5.15</v>
-      </c>
-      <c r="K5">
-        <v>13.54</v>
-      </c>
-      <c r="L5">
-        <v>6.47</v>
-      </c>
-      <c r="M5">
-        <v>0.32</v>
-      </c>
-      <c r="N5">
-        <v>8</v>
-      </c>
-      <c r="O5">
-        <v>5.3</v>
-      </c>
-      <c r="P5">
-        <v>92</v>
-      </c>
-      <c r="Q5">
-        <v>43.41</v>
-      </c>
-      <c r="R5">
-        <v>5.21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>131.85</v>
-      </c>
-      <c r="C6">
-        <v>16.92</v>
-      </c>
-      <c r="D6">
-        <v>14.03</v>
-      </c>
-      <c r="E6">
-        <v>11.78</v>
-      </c>
-      <c r="F6">
-        <v>7.9</v>
-      </c>
-      <c r="G6">
-        <v>12.83</v>
-      </c>
-      <c r="H6">
-        <v>10.64</v>
-      </c>
-      <c r="I6">
-        <v>8.93</v>
-      </c>
-      <c r="J6">
-        <v>5.98</v>
-      </c>
-      <c r="K6">
-        <v>14.78</v>
-      </c>
-      <c r="L6">
-        <v>8.26</v>
-      </c>
-      <c r="M6">
-        <v>0.31</v>
-      </c>
-      <c r="N6">
-        <v>6.33</v>
-      </c>
-      <c r="O6">
-        <v>4.63</v>
-      </c>
-      <c r="P6">
-        <v>93.67</v>
-      </c>
-      <c r="Q6">
-        <v>56.9</v>
-      </c>
-      <c r="R6">
-        <v>6.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>119.79</v>
-      </c>
-      <c r="C7">
-        <v>9.4</v>
-      </c>
-      <c r="D7">
-        <v>5.72</v>
-      </c>
-      <c r="E7">
-        <v>6.17</v>
-      </c>
-      <c r="F7">
-        <v>6.21</v>
-      </c>
-      <c r="G7">
-        <v>7.84</v>
-      </c>
-      <c r="H7">
-        <v>4.77</v>
-      </c>
-      <c r="I7">
-        <v>5.15</v>
-      </c>
-      <c r="J7">
-        <v>5.18</v>
-      </c>
-      <c r="K7">
-        <v>10.51</v>
-      </c>
-      <c r="L7">
-        <v>5.89</v>
-      </c>
-      <c r="M7">
-        <v>0.31</v>
-      </c>
-      <c r="N7">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="O7">
-        <v>5.05</v>
-      </c>
-      <c r="P7">
-        <v>91.95</v>
-      </c>
-      <c r="Q7">
-        <v>40.47</v>
-      </c>
-      <c r="R7">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>152.75</v>
-      </c>
-      <c r="C8">
-        <v>8.17</v>
-      </c>
-      <c r="D8">
-        <v>4.41</v>
-      </c>
-      <c r="E8">
-        <v>2.63</v>
-      </c>
-      <c r="F8">
-        <v>1.78</v>
-      </c>
-      <c r="G8">
-        <v>5.35</v>
-      </c>
-      <c r="H8">
-        <v>2.88</v>
-      </c>
-      <c r="I8">
-        <v>1.71</v>
-      </c>
-      <c r="J8">
-        <v>1.16</v>
-      </c>
-      <c r="K8">
-        <v>2.95</v>
-      </c>
-      <c r="L8">
-        <v>1.55</v>
-      </c>
-      <c r="M8">
-        <v>0.31</v>
-      </c>
-      <c r="N8">
-        <v>28.03</v>
-      </c>
-      <c r="O8">
+      <c r="H11">
         <v>9</v>
       </c>
-      <c r="P8">
-        <v>71.97</v>
-      </c>
-      <c r="Q8">
-        <v>61.77</v>
-      </c>
-      <c r="R8">
-        <v>13.69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>89.69</v>
-      </c>
-      <c r="C9">
-        <v>5.86</v>
-      </c>
-      <c r="D9">
-        <v>4.22</v>
-      </c>
-      <c r="E9">
-        <v>3.47</v>
-      </c>
-      <c r="F9">
-        <v>1.73</v>
-      </c>
-      <c r="G9">
-        <v>6.52</v>
-      </c>
-      <c r="H9">
-        <v>4.7</v>
-      </c>
-      <c r="I9">
-        <v>3.86</v>
-      </c>
-      <c r="J9">
-        <v>1.93</v>
-      </c>
-      <c r="K9">
-        <v>5.63</v>
-      </c>
-      <c r="L9">
-        <v>2.85</v>
-      </c>
-      <c r="M9">
-        <v>0.27</v>
-      </c>
-      <c r="N9">
-        <v>14.41</v>
-      </c>
-      <c r="O9">
-        <v>7.4</v>
-      </c>
-      <c r="P9">
-        <v>85.59</v>
-      </c>
-      <c r="Q9">
-        <v>144</v>
-      </c>
-      <c r="R9">
-        <v>22.27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>55.14</v>
-      </c>
-      <c r="C10">
-        <v>5.98</v>
-      </c>
-      <c r="D10">
-        <v>5.43</v>
-      </c>
-      <c r="E10">
-        <v>4.89</v>
-      </c>
-      <c r="F10">
-        <v>3.94</v>
-      </c>
-      <c r="G10">
-        <v>10.84</v>
-      </c>
-      <c r="H10">
-        <v>9.85</v>
-      </c>
-      <c r="I10">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="J10">
-        <v>7.15</v>
-      </c>
-      <c r="K10">
-        <v>20.57</v>
-      </c>
-      <c r="L10">
-        <v>12.85</v>
-      </c>
-      <c r="M10">
-        <v>0.17</v>
-      </c>
-      <c r="N10">
-        <v>6.32</v>
-      </c>
-      <c r="O10">
-        <v>5.55</v>
-      </c>
-      <c r="P10">
-        <v>93.68000000000001</v>
-      </c>
-      <c r="Q10">
-        <v>214.41</v>
-      </c>
-      <c r="R10">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>69.95</v>
-      </c>
-      <c r="C11">
+      <c r="I11">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="J11">
+        <v>7.44</v>
+      </c>
+      <c r="K11">
+        <v>5.57</v>
+      </c>
+      <c r="L11">
+        <v>15.71</v>
+      </c>
+      <c r="M11">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.21</v>
+      </c>
+      <c r="O11">
         <v>6.3</v>
       </c>
-      <c r="D11">
-        <v>5.75</v>
-      </c>
-      <c r="E11">
-        <v>5.21</v>
-      </c>
-      <c r="F11">
-        <v>3.9</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="I11">
-        <v>7.44</v>
-      </c>
-      <c r="J11">
-        <v>5.57</v>
-      </c>
-      <c r="K11">
-        <v>15.71</v>
-      </c>
-      <c r="L11">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="M11">
-        <v>0.21</v>
-      </c>
-      <c r="N11">
-        <v>6.3</v>
-      </c>
-      <c r="O11">
+      <c r="P11">
         <v>5.53</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>93.7</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>236.11</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>16.67</v>
       </c>
     </row>
